--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nrg2-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nrg2-Erbb4.xlsx
@@ -543,10 +543,10 @@
         <v>0.258887</v>
       </c>
       <c r="I2">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="J2">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P2">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q2">
         <v>0.000888759071</v>
@@ -573,10 +573,10 @@
         <v>0.007998831639</v>
       </c>
       <c r="S2">
-        <v>0.1966128290155462</v>
+        <v>0.0781422083546995</v>
       </c>
       <c r="T2">
-        <v>0.1966128290155462</v>
+        <v>0.07814220835469948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.258887</v>
       </c>
       <c r="I3">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="J3">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>0.000154814426</v>
       </c>
       <c r="S3">
-        <v>0.003805368539058699</v>
+        <v>0.001512413522222555</v>
       </c>
       <c r="T3">
-        <v>0.003805368539058699</v>
+        <v>0.001512413522222555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05940633333333334</v>
+        <v>0.551351</v>
       </c>
       <c r="H4">
-        <v>0.178219</v>
+        <v>1.654053</v>
       </c>
       <c r="I4">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="J4">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,19 +688,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P4">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q4">
-        <v>0.0006118258270000001</v>
+        <v>0.005678363949000001</v>
       </c>
       <c r="R4">
-        <v>0.005506432443000002</v>
+        <v>0.051105275541</v>
       </c>
       <c r="S4">
-        <v>0.1353491746372805</v>
+        <v>0.4992578003365011</v>
       </c>
       <c r="T4">
-        <v>0.1353491746372805</v>
+        <v>0.4992578003365011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05940633333333334</v>
+        <v>0.551351</v>
       </c>
       <c r="H5">
-        <v>0.178219</v>
+        <v>1.654053</v>
       </c>
       <c r="I5">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="J5">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q5">
-        <v>1.184166244444445E-05</v>
+        <v>0.0001099026326666667</v>
       </c>
       <c r="R5">
-        <v>0.000106574962</v>
+        <v>0.000989123694</v>
       </c>
       <c r="S5">
-        <v>0.002619633182286103</v>
+        <v>0.009662949949873051</v>
       </c>
       <c r="T5">
-        <v>0.002619633182286103</v>
+        <v>0.009662949949873051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03677766666666667</v>
+        <v>0.018049</v>
       </c>
       <c r="H6">
-        <v>0.110333</v>
+        <v>0.054147</v>
       </c>
       <c r="I6">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="J6">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,19 +812,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P6">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q6">
-        <v>0.0003787731890000001</v>
+        <v>0.000185886651</v>
       </c>
       <c r="R6">
-        <v>0.003408958701</v>
+        <v>0.001672979859</v>
       </c>
       <c r="S6">
-        <v>0.08379286431443936</v>
+        <v>0.01634367950411536</v>
       </c>
       <c r="T6">
-        <v>0.08379286431443936</v>
+        <v>0.01634367950411536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03677766666666667</v>
+        <v>0.018049</v>
       </c>
       <c r="H7">
-        <v>0.110333</v>
+        <v>0.054147</v>
       </c>
       <c r="I7">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="J7">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -877,16 +877,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q7">
-        <v>7.331014888888889E-06</v>
+        <v>3.597767333333333E-06</v>
       </c>
       <c r="R7">
-        <v>6.597913400000001E-05</v>
+        <v>3.2379906E-05</v>
       </c>
       <c r="S7">
-        <v>0.001621779877011837</v>
+        <v>0.0003163258679956301</v>
       </c>
       <c r="T7">
-        <v>0.001621779877011837</v>
+        <v>0.0003163258679956302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2480983333333333</v>
+        <v>0.4276773333333333</v>
       </c>
       <c r="H8">
-        <v>0.7442949999999999</v>
+        <v>1.283032</v>
       </c>
       <c r="I8">
-        <v>0.5761983504343774</v>
+        <v>0.3947646224645928</v>
       </c>
       <c r="J8">
-        <v>0.5761983504343773</v>
+        <v>0.3947646224645929</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,19 +936,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P8">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q8">
-        <v>0.002555164735</v>
+        <v>0.004404648856</v>
       </c>
       <c r="R8">
-        <v>0.022996482615</v>
+        <v>0.039641839704</v>
       </c>
       <c r="S8">
-        <v>0.5652579912167315</v>
+        <v>0.3872691709886815</v>
       </c>
       <c r="T8">
-        <v>0.5652579912167314</v>
+        <v>0.3872691709886815</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2480983333333333</v>
+        <v>0.4276773333333333</v>
       </c>
       <c r="H9">
-        <v>0.7442949999999999</v>
+        <v>1.283032</v>
       </c>
       <c r="I9">
-        <v>0.5761983504343774</v>
+        <v>0.3947646224645928</v>
       </c>
       <c r="J9">
-        <v>0.5761983504343773</v>
+        <v>0.3947646224645929</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,16 +1001,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q9">
-        <v>4.945426777777777E-05</v>
+        <v>8.525034844444444E-05</v>
       </c>
       <c r="R9">
-        <v>0.0004450884099999999</v>
+        <v>0.000767253136</v>
       </c>
       <c r="S9">
-        <v>0.0109403592176459</v>
+        <v>0.007495451475911304</v>
       </c>
       <c r="T9">
-        <v>0.0109403592176459</v>
+        <v>0.007495451475911304</v>
       </c>
     </row>
   </sheetData>
